--- a/model/data/Исправленные_записи_+добавленные.xlsx
+++ b/model/data/Исправленные_записи_+добавленные.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Дата</t>
   </si>
@@ -2622,139 +2622,131 @@
     <t>1-я Гербицидная обработка</t>
   </si>
   <si>
-    <t xml:space="preserve"> ТСК Пахота зяби под сою_x000D_
-По Пу 29/1367_x000D_
-_x000D_
-_x000D_
-Сзрпо к_x000D_
-По Пу 146/1217_x000D_
-_x000D_
-_x000D_
-Дисков сах св_x000D_
-По Пу 64/934_x000D_
-_x000D_
-_x000D_
-2-е диск сах св под пш_x000D_
-По Пу 25/775_x000D_
+    <t xml:space="preserve"> ТСК Пахота зяби под сою
+По Пу 29/1367
+Сзрпо к
+По Пу 146/1217
+Дисков сах св
+По Пу 64/934
+2-е диск сах св под пш
+По Пу 25/775
 </t>
   </si>
   <si>
-    <t>Отд 3 _x000D_
-сзрпш 32 га / с нарастающим 610 га (15%) Остаток 3870 га_x000D_
-Культивация под пшеницу 210 га (5%) Остаток 3660 га_x000D_
+    <t>Отд 3 
+сзрпш 32 га / с нарастающим 610 га (15%) Остаток 3870 га
+Культивация под пшеницу 210 га (5%) Остаток 3660 га
 Осадки 0 мм</t>
   </si>
   <si>
-    <t>20.11 Мир_x000D_
-Пахота зяби под кукурузу – 85 га/день, 1020 га от начала (94%), остаток 65 га._x000D_
-Работало 3 агрегата._x000D_
-Дискование под рапс – 32 га/день, 224 га от начала (38%), остаток 360 га._x000D_
-Работало 2 агрегата._x000D_
-_x000D_
-Осадки:_x000D_
+    <t>20.11 Мир
+Пахота зяби под кукурузу – 85 га/день, 1020 га от начала (94%), остаток 65 га.
+Работало 3 агрегата.
+Дискование под рапс – 32 га/день, 224 га от начала (38%), остаток 360 га.
+Работало 2 агрегата.
+Осадки:
 Бригада 2 (Ростовская) – 4 мм.</t>
   </si>
   <si>
-    <t>20.11 Мир_x000D_
-Культивация под пшеницу – 120 га/день, 840 га от начала (70%), остаток 360 га._x000D_
-Работало 5 агрегатов._x000D_
-Посев пш озимых – 55 га/день, 385 га от начала (55%), остаток 315 га._x000D_
-Работал 1 агрегат._x000D_
-_x000D_
-Осадки:_x000D_
+    <t>20.11 Мир
+Культивация под пшеницу – 120 га/день, 840 га от начала (70%), остаток 360 га.
+Работало 5 агрегатов.
+Посев пш озимых – 55 га/день, 385 га от начала (55%), остаток 315 га.
+Работал 1 агрегат.
+Осадки:
 Бригада 3 (Краснодарская) – 2 мм.</t>
   </si>
   <si>
     <t>23586.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Уборка пш 28.10.день_x000D_
-Отд11-45/216_x000D_
-По ПУ 45/1200_x000D_
-Вал 2358650/6664530_x000D_
-Урожайность 279,9/308,3_x000D_
-По ПУ 1259680/41630600_x000D_
-На завод 1811630/6430580_x000D_
-По ПУ 1811630/41400550_x000D_
-Положено в кагат 399400_x000D_
-Вввезено с кагата 951340_x000D_
-Остаток 230060_x000D_
-Оз-9,04/12,58_x000D_
+    <t xml:space="preserve"> Уборка пш 28.10.день
+Отд11-45/216
+По ПУ 45/1200
+Вал 2358650/6664530
+Урожайность 279,9/308,3
+По ПУ 1259680/41630600
+На завод 1811630/6430580
+По ПУ 1811630/41400550
+Положено в кагат 399400
+Вввезено с кагата 951340
+Остаток 230060
+Оз-9,04/12,58
 Дигестия-14,50/15,05 </t>
   </si>
   <si>
     <t>66645.3</t>
   </si>
   <si>
-    <t>Уборка св 05.11.день_x000D_
-Отд7-38/184_x000D_
-По ПУ 38/950_x000D_
-Вал 1875200/5873400_x000D_
-Урожайность 265,4/298,7_x000D_
-По ПУ 1048760/35420800_x000D_
-На завод 1526430/5824170_x000D_
-По ПУ 1526430/35218600_x000D_
-Положено в кагат 287600_x000D_
-Ввезено с кагата 843210_x000D_
-Остаток 185430_x000D_
-Оз-8,76/11,92_x000D_
+    <t>Уборка св 05.11.день
+Отд7-38/184
+По ПУ 38/950
+Вал 1875200/5873400
+Урожайность 265,4/298,7
+По ПУ 1048760/35420800
+На завод 1526430/5824170
+По ПУ 1526430/35218600
+Положено в кагат 287600
+Ввезено с кагата 843210
+Остаток 185430
+Оз-8,76/11,92
 Дигестия-14,20/14,85</t>
   </si>
   <si>
-    <t>Отд9 Уборка сои -52/240_x000D_
-По ПУ 52/1350_x000D_
-Вал 3125400/7246800_x000D_
-Урожайность 291,3/315,6_x000D_
-По ПУ 1689320/42851700_x000D_
-На завод 2048750/7028360_x000D_
-По ПУ 2048750/42630900_x000D_
-Положено в кагат 452800_x000D_
-Ввезено с кагата 1087650_x000D_
-Остаток 324780_x000D_
-Оз-9,35/13,42_x000D_
+    <t>Отд9 Уборка сои -52/240
+По ПУ 52/1350
+Вал 3125400/7246800
+Урожайность 291,3/315,6
+По ПУ 1689320/42851700
+На завод 2048750/7028360
+По ПУ 2048750/42630900
+Положено в кагат 452800
+Ввезено с кагата 1087650
+Остаток 324780
+Оз-9,35/13,42
 Дигестия-14,85/15,30</t>
   </si>
   <si>
-    <t xml:space="preserve">Вырав под Пш озим_x000D_
-ПоПу 42/876_x000D_
-Отд 9 42/185_x000D_
-Культ под оз пш_x000D_
-ПоПу 215/1876_x000D_
-Отд 9 65/342_x000D_
-Отд 14 72/598_x000D_
-Отд 19 78/423_x000D_
-Сев Яч оз_x000D_
-ПоПу 327/1429_x000D_
-Отд 9 78/312_x000D_
-Отд 14 85/376_x000D_
-Отд 18 92/415_x000D_
-Отд 19 72/326_x000D_
+    <t xml:space="preserve">Вырав под Пш озим
+ПоПу 42/876
+Отд 9 42/185
+Культ под оз пш
+ПоПу 215/1876
+Отд 9 65/342
+Отд 14 72/598
+Отд 19 78/423
+Сев Яч оз
+ПоПу 327/1429
+Отд 9 78/312
+Отд 14 85/376
+Отд 18 92/415
+Отд 19 72/326
 </t>
   </si>
   <si>
-    <t>Вырав под горох_x000D_
-ПоПу 38/923_x000D_
-Отд 7 38/198_x000D_
-Диск под Подсолн_x000D_
-ПоПу 256/2043_x000D_
-Отд 7 82/432_x000D_
-Отд 13 94/712_x000D_
-Отд 15 80/485_x000D_
-Сев Подсолн_x000D_
-ПоПу 412/1785_x000D_
-Отд 7 92/387_x000D_
-Отд 13 104/456_x000D_
-Отд 16 108/492_x000D_
+    <t>Вырав под горох
+ПоПу 38/923
+Отд 7 38/198
+Диск под Подсолн
+ПоПу 256/2043
+Отд 7 82/432
+Отд 13 94/712
+Отд 15 80/485
+Сев Подсолн
+ПоПу 412/1785
+Отд 7 92/387
+Отд 13 104/456
+Отд 16 108/492
 Отд 15 108/450</t>
   </si>
   <si>
     <t xml:space="preserve">Предпосевная культивация </t>
   </si>
   <si>
-    <t>01.04.25г Мир._x000D_
-Предпосевная культивация под кук – 65/120 (54%)_x000D_
-Сев кукурузы – 22/85 (26%)_x000D_
-1-я подкормка озимого ячменя – 420/4500 (93%)_x000D_
+    <t>01.04.25г Мир.
+Предпосевная культивация под кук – 65/120 (54%)
+Сев кукурузы – 22/85 (26%)
+1-я подкормка озимого ячменя – 420/4500 (93%)
 На данный момент осадки в 3х районах до 5 мм</t>
   </si>
   <si>
@@ -2794,7 +2786,7 @@
     <numFmt numFmtId="167" formatCode="d/m"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2890,6 +2882,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2918,7 +2926,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3093,11 +3101,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3221,6 +3236,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="17" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="17" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="17" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3525,21 +3628,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A473" sqref="A473"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="9" width="25" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" ht="15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3568,17 +3675,18 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="300.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" ht="300">
       <c r="A3" s="3" t="s">
         <v>463</v>
       </c>
+      <c r="B3" s="72"/>
       <c r="J3" s="16">
         <f>COUNTIF(A1:A468,"&lt;&gt;")</f>
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" ht="15">
+      <c r="B4" s="73">
         <v>45744</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3599,8 +3707,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" ht="15">
+      <c r="B5" s="73">
         <v>45744</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3621,8 +3729,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" ht="15">
+      <c r="B6" s="73">
         <v>45744</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3643,8 +3751,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" ht="15">
+      <c r="B7" s="73">
         <v>45744</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3665,13 +3773,14 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" ht="105">
       <c r="A8" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B8" s="72"/>
+    </row>
+    <row r="9" ht="15">
+      <c r="B9" s="73"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -3690,8 +3799,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+    <row r="10" ht="15">
+      <c r="B10" s="73"/>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3710,8 +3819,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+    <row r="11" ht="15">
+      <c r="B11" s="73"/>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
@@ -3730,8 +3839,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+    <row r="12" ht="15">
+      <c r="B12" s="73"/>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3750,8 +3859,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    <row r="13" customHeight="1" ht="0" hidden="1">
+      <c r="B13" s="73"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3770,13 +3879,14 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" ht="573">
       <c r="A14" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B14" s="72"/>
+    </row>
+    <row r="15" ht="15">
+      <c r="B15" s="73">
         <v>45609</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3797,8 +3907,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+    <row r="16" ht="15">
+      <c r="B16" s="73">
         <v>45609</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3819,8 +3929,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+    <row r="17" ht="15">
+      <c r="B17" s="73">
         <v>45609</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3841,8 +3951,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+    <row r="18" ht="15">
+      <c r="B18" s="73">
         <v>45609</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3863,8 +3973,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+    <row r="19" ht="15">
+      <c r="B19" s="73">
         <v>45609</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3885,8 +3995,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+    <row r="20" ht="15">
+      <c r="B20" s="73">
         <v>45609</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3907,8 +4017,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+    <row r="21" ht="15">
+      <c r="B21" s="73">
         <v>45609</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3929,8 +4039,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+    <row r="22" ht="15">
+      <c r="B22" s="73">
         <v>45609</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3951,13 +4061,14 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" ht="639">
       <c r="A23" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B23" s="72"/>
+    </row>
+    <row r="24" ht="15">
+      <c r="B24" s="73">
         <v>45610</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3978,8 +4089,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+    <row r="25" ht="15">
+      <c r="B25" s="73">
         <v>45610</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -4000,8 +4111,8 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+    <row r="26" ht="15">
+      <c r="B26" s="73">
         <v>45610</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -4022,8 +4133,8 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+    <row r="27" ht="15">
+      <c r="B27" s="73">
         <v>45610</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -4044,8 +4155,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+    <row r="28" ht="15">
+      <c r="B28" s="73">
         <v>45610</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4066,8 +4177,8 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+    <row r="29" ht="15">
+      <c r="B29" s="73">
         <v>45610</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4088,8 +4199,8 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+    <row r="30" ht="15">
+      <c r="B30" s="73">
         <v>45610</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4110,8 +4221,8 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+    <row r="31" ht="15">
+      <c r="B31" s="73">
         <v>45610</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -4132,8 +4243,8 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+    <row r="32" ht="15">
+      <c r="B32" s="73">
         <v>45610</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4154,13 +4265,14 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="33" ht="184">
       <c r="A33" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="B33" s="72"/>
+    </row>
+    <row r="34" ht="15">
+      <c r="B34" s="73">
         <v>45610</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4181,8 +4293,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+    <row r="35" ht="15">
+      <c r="B35" s="73">
         <v>45610</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4203,8 +4315,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+    <row r="36" ht="15">
+      <c r="B36" s="73">
         <v>45610</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -4225,20 +4337,20 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="37" ht="158">
       <c r="A37" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" ht="15">
       <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="50" t="s">
         <v>70</v>
       </c>
@@ -4251,15 +4363,13 @@
       <c r="F38" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="50" t="s">
-        <v>72</v>
-      </c>
+      <c r="G38" s="50"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" ht="15">
       <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="50" t="s">
         <v>70</v>
       </c>
@@ -4272,15 +4382,13 @@
       <c r="F39" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>73</v>
-      </c>
+      <c r="G39" s="50"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" ht="15">
       <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="50" t="s">
         <v>70</v>
       </c>
@@ -4299,9 +4407,9 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" ht="15">
       <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="50" t="s">
         <v>70</v>
       </c>
@@ -4314,15 +4422,13 @@
       <c r="F41" s="50">
         <v>136</v>
       </c>
-      <c r="G41" s="50">
-        <v>136</v>
-      </c>
+      <c r="G41" s="50"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" ht="15">
       <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="50" t="s">
         <v>70</v>
       </c>
@@ -4335,15 +4441,13 @@
       <c r="F42" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="50" t="s">
-        <v>76</v>
-      </c>
+      <c r="G42" s="50"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" ht="15">
       <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="50" t="s">
         <v>70</v>
       </c>
@@ -4356,19 +4460,18 @@
       <c r="F43" s="50">
         <v>105</v>
       </c>
-      <c r="G43" s="50">
-        <v>105</v>
-      </c>
+      <c r="G43" s="50"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="44" ht="249">
       <c r="A44" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="B44" s="72"/>
+    </row>
+    <row r="45" ht="15">
+      <c r="B45" s="73">
         <v>45744</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -4389,8 +4492,8 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+    <row r="46" ht="15">
+      <c r="B46" s="73">
         <v>45744</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4411,8 +4514,8 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+    <row r="47" ht="15">
+      <c r="B47" s="73">
         <v>45744</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4433,8 +4536,8 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+    <row r="48" ht="15">
+      <c r="B48" s="73">
         <v>45744</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4455,13 +4558,14 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" ht="132">
       <c r="A49" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
+      <c r="B49" s="72"/>
+    </row>
+    <row r="50" ht="15">
+      <c r="B50" s="73"/>
       <c r="C50" s="9" t="s">
         <v>447</v>
       </c>
@@ -4480,8 +4584,8 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+    <row r="51" ht="15">
+      <c r="B51" s="73"/>
       <c r="C51" s="9" t="s">
         <v>447</v>
       </c>
@@ -4500,8 +4604,8 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
+    <row r="52" ht="15">
+      <c r="B52" s="73"/>
       <c r="C52" s="9" t="s">
         <v>447</v>
       </c>
@@ -4520,8 +4624,8 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
+    <row r="53" ht="15">
+      <c r="B53" s="73"/>
       <c r="C53" s="9" t="s">
         <v>447</v>
       </c>
@@ -4540,13 +4644,14 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="54" ht="132">
       <c r="A54" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="10">
+      <c r="B54" s="72"/>
+    </row>
+    <row r="55" ht="15">
+      <c r="B55" s="73">
         <v>45975</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4567,8 +4672,8 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="10">
+    <row r="56" ht="15">
+      <c r="B56" s="73">
         <v>45975</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -4589,8 +4694,8 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="10">
+    <row r="57" ht="15">
+      <c r="B57" s="73">
         <v>45975</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4611,13 +4716,14 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="58" ht="105">
       <c r="A58" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
+      <c r="B58" s="72"/>
+    </row>
+    <row r="59" ht="15">
+      <c r="B59" s="73"/>
       <c r="C59" s="2" t="s">
         <v>447</v>
       </c>
@@ -4636,8 +4742,8 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+    <row r="60" ht="15">
+      <c r="B60" s="73"/>
       <c r="C60" s="2" t="s">
         <v>447</v>
       </c>
@@ -4656,8 +4762,8 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+    <row r="61" ht="15">
+      <c r="B61" s="73"/>
       <c r="C61" s="2" t="s">
         <v>447</v>
       </c>
@@ -4676,13 +4782,14 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="62" ht="210">
       <c r="A62" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
+      <c r="B62" s="72"/>
+    </row>
+    <row r="63" ht="15">
+      <c r="B63" s="73"/>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
@@ -4701,8 +4808,8 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
+    <row r="64" ht="15">
+      <c r="B64" s="73"/>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
@@ -4721,8 +4828,8 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+    <row r="65" ht="15">
+      <c r="B65" s="73"/>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
@@ -4741,8 +4848,8 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
+    <row r="66" ht="15">
+      <c r="B66" s="73"/>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4761,13 +4868,14 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" ht="93">
       <c r="A67" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
+      <c r="B67" s="72"/>
+    </row>
+    <row r="68" ht="15">
+      <c r="B68" s="73"/>
       <c r="C68" s="2" t="s">
         <v>103</v>
       </c>
@@ -4786,9 +4894,9 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" ht="15">
       <c r="A69" s="11"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="2" t="s">
         <v>103</v>
       </c>
@@ -4807,13 +4915,14 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" ht="366">
       <c r="A70" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
+      <c r="B70" s="72"/>
+    </row>
+    <row r="71" ht="15">
+      <c r="B71" s="73"/>
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
@@ -4832,8 +4941,8 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
+    <row r="72" ht="15">
+      <c r="B72" s="73"/>
       <c r="C72" s="2" t="s">
         <v>24</v>
       </c>
@@ -4852,8 +4961,8 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
+    <row r="73" ht="15">
+      <c r="B73" s="73"/>
       <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
@@ -4872,8 +4981,8 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
+    <row r="74" ht="15">
+      <c r="B74" s="73"/>
       <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
@@ -4892,8 +5001,8 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
+    <row r="75" ht="15">
+      <c r="B75" s="73"/>
       <c r="C75" s="2" t="s">
         <v>24</v>
       </c>
@@ -4912,8 +5021,8 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
+    <row r="76" ht="15">
+      <c r="B76" s="73"/>
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
@@ -4932,8 +5041,8 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
+    <row r="77" ht="15">
+      <c r="B77" s="73"/>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
@@ -4952,13 +5061,14 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" ht="67">
       <c r="A78" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="10">
+      <c r="B78" s="72"/>
+    </row>
+    <row r="79" ht="15">
+      <c r="B79" s="73">
         <v>45864</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4979,13 +5089,14 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="80" ht="144">
       <c r="A80" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="10">
+      <c r="B80" s="72"/>
+    </row>
+    <row r="81" ht="15">
+      <c r="B81" s="73">
         <v>45980</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -5006,8 +5117,8 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="10">
+    <row r="82" ht="15">
+      <c r="B82" s="73">
         <v>45980</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -5028,8 +5139,8 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="10">
+    <row r="83" ht="15">
+      <c r="B83" s="73">
         <v>45980</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -5050,13 +5161,14 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" ht="105">
       <c r="A84" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="10">
+      <c r="B84" s="72"/>
+    </row>
+    <row r="85" ht="15">
+      <c r="B85" s="73">
         <v>45855</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5077,8 +5189,8 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="10">
+    <row r="86" ht="15">
+      <c r="B86" s="73">
         <v>45855</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -5099,13 +5211,14 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="87" ht="261">
       <c r="A87" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
+      <c r="B87" s="72"/>
+    </row>
+    <row r="88" ht="15">
+      <c r="B88" s="73"/>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
@@ -5124,8 +5237,8 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
+    <row r="89" ht="15">
+      <c r="B89" s="73"/>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
@@ -5144,8 +5257,8 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
+    <row r="90" ht="15">
+      <c r="B90" s="73"/>
       <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
@@ -5164,8 +5277,8 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
+    <row r="91" ht="15">
+      <c r="B91" s="73"/>
       <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
@@ -5184,8 +5297,8 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
+    <row r="92" ht="15">
+      <c r="B92" s="73"/>
       <c r="C92" s="2" t="s">
         <v>24</v>
       </c>
@@ -5204,13 +5317,14 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" ht="54">
       <c r="A93" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="10">
+      <c r="B93" s="72"/>
+    </row>
+    <row r="94" ht="15">
+      <c r="B94" s="73">
         <v>45946</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -5231,13 +5345,14 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="95" ht="144">
       <c r="A95" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
+      <c r="B95" s="72"/>
+    </row>
+    <row r="96" ht="15">
+      <c r="B96" s="73"/>
       <c r="C96" s="2" t="s">
         <v>24</v>
       </c>
@@ -5256,8 +5371,8 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
+    <row r="97" ht="15">
+      <c r="B97" s="73"/>
       <c r="C97" s="2" t="s">
         <v>24</v>
       </c>
@@ -5276,8 +5391,8 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
+    <row r="98" ht="15">
+      <c r="B98" s="73"/>
       <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
@@ -5296,8 +5411,8 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
+    <row r="99" ht="15">
+      <c r="B99" s="73"/>
       <c r="C99" s="2" t="s">
         <v>24</v>
       </c>
@@ -5316,8 +5431,8 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
+    <row r="100" ht="15">
+      <c r="B100" s="73"/>
       <c r="C100" s="2" t="s">
         <v>24</v>
       </c>
@@ -5336,13 +5451,14 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="101" ht="301">
       <c r="A101" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
+      <c r="B101" s="72"/>
+    </row>
+    <row r="102" ht="15">
+      <c r="B102" s="73"/>
       <c r="C102" s="2" t="s">
         <v>24</v>
       </c>
@@ -5361,8 +5477,8 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
+    <row r="103" ht="15">
+      <c r="B103" s="73"/>
       <c r="C103" s="2" t="s">
         <v>24</v>
       </c>
@@ -5381,8 +5497,8 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
+    <row r="104" ht="15">
+      <c r="B104" s="73"/>
       <c r="C104" s="2" t="s">
         <v>24</v>
       </c>
@@ -5401,8 +5517,8 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
+    <row r="105" ht="15">
+      <c r="B105" s="73"/>
       <c r="C105" s="2" t="s">
         <v>24</v>
       </c>
@@ -5421,8 +5537,8 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
+    <row r="106" ht="15">
+      <c r="B106" s="73"/>
       <c r="C106" s="2" t="s">
         <v>24</v>
       </c>
@@ -5441,8 +5557,8 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
+    <row r="107" ht="15">
+      <c r="B107" s="73"/>
       <c r="C107" s="2" t="s">
         <v>24</v>
       </c>
@@ -5461,13 +5577,14 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" ht="67">
       <c r="A108" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="10">
+      <c r="B108" s="72"/>
+    </row>
+    <row r="109" ht="15">
+      <c r="B109" s="73">
         <v>45859</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -5488,13 +5605,14 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="110" ht="196">
       <c r="A110" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
+      <c r="B110" s="72"/>
+    </row>
+    <row r="111" ht="15">
+      <c r="B111" s="73"/>
       <c r="C111" s="2" t="s">
         <v>24</v>
       </c>
@@ -5513,8 +5631,8 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
+    <row r="112" ht="15">
+      <c r="B112" s="73"/>
       <c r="C112" s="2" t="s">
         <v>24</v>
       </c>
@@ -5533,8 +5651,8 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
+    <row r="113" ht="15">
+      <c r="B113" s="73"/>
       <c r="C113" s="2" t="s">
         <v>24</v>
       </c>
@@ -5553,8 +5671,8 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="2"/>
+    <row r="114" ht="15">
+      <c r="B114" s="73"/>
       <c r="C114" s="2" t="s">
         <v>24</v>
       </c>
@@ -5573,13 +5691,14 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="115" ht="158">
       <c r="A115" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
+      <c r="B115" s="72"/>
+    </row>
+    <row r="116" ht="15">
+      <c r="B116" s="73"/>
       <c r="C116" s="2" t="s">
         <v>24</v>
       </c>
@@ -5598,8 +5717,8 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
+    <row r="117" ht="15">
+      <c r="B117" s="73"/>
       <c r="C117" s="2" t="s">
         <v>24</v>
       </c>
@@ -5618,8 +5737,8 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
+    <row r="118" ht="15">
+      <c r="B118" s="73"/>
       <c r="C118" s="2" t="s">
         <v>24</v>
       </c>
@@ -5638,13 +5757,14 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" ht="67">
       <c r="A119" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="10">
+      <c r="B119" s="72"/>
+    </row>
+    <row r="120" ht="15">
+      <c r="B120" s="73">
         <v>45857</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -5665,13 +5785,14 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="121" ht="210">
       <c r="A121" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B122" s="2"/>
+      <c r="B121" s="72"/>
+    </row>
+    <row r="122" ht="15">
+      <c r="B122" s="73"/>
       <c r="C122" s="2" t="s">
         <v>24</v>
       </c>
@@ -5690,8 +5811,8 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B123" s="2"/>
+    <row r="123" ht="15">
+      <c r="B123" s="73"/>
       <c r="C123" s="2" t="s">
         <v>24</v>
       </c>
@@ -5710,8 +5831,8 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B124" s="2"/>
+    <row r="124" ht="15">
+      <c r="B124" s="73"/>
       <c r="C124" s="2" t="s">
         <v>24</v>
       </c>
@@ -5730,9 +5851,9 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" ht="15">
       <c r="A125" s="12"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="2" t="s">
         <v>24</v>
       </c>
@@ -5751,13 +5872,14 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="126" ht="144">
       <c r="A126" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
+      <c r="B126" s="72"/>
+    </row>
+    <row r="127" ht="15">
+      <c r="B127" s="73"/>
       <c r="C127" s="2" t="s">
         <v>24</v>
       </c>
@@ -5776,8 +5898,8 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
+    <row r="128" ht="15">
+      <c r="B128" s="73"/>
       <c r="C128" s="2" t="s">
         <v>24</v>
       </c>
@@ -5796,8 +5918,8 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="2"/>
+    <row r="129" ht="15">
+      <c r="B129" s="73"/>
       <c r="C129" s="2" t="s">
         <v>24</v>
       </c>
@@ -5816,13 +5938,14 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="130" ht="301">
       <c r="A130" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="2"/>
+      <c r="B130" s="72"/>
+    </row>
+    <row r="131" ht="15">
+      <c r="B131" s="73"/>
       <c r="C131" s="2" t="s">
         <v>24</v>
       </c>
@@ -5841,8 +5964,8 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
+    <row r="132" ht="15">
+      <c r="B132" s="73"/>
       <c r="C132" s="2" t="s">
         <v>24</v>
       </c>
@@ -5861,8 +5984,8 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
+    <row r="133" ht="15">
+      <c r="B133" s="73"/>
       <c r="C133" s="2" t="s">
         <v>24</v>
       </c>
@@ -5881,8 +6004,8 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="2"/>
+    <row r="134" ht="15">
+      <c r="B134" s="73"/>
       <c r="C134" s="2" t="s">
         <v>24</v>
       </c>
@@ -5901,8 +6024,8 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="2"/>
+    <row r="135" ht="15">
+      <c r="B135" s="73"/>
       <c r="C135" s="2" t="s">
         <v>24</v>
       </c>
@@ -5921,8 +6044,8 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
+    <row r="136" ht="15">
+      <c r="B136" s="73"/>
       <c r="C136" s="2" t="s">
         <v>24</v>
       </c>
@@ -5941,13 +6064,14 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" ht="67">
       <c r="A137" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
+      <c r="B137" s="72"/>
+    </row>
+    <row r="138" ht="15">
+      <c r="B138" s="73"/>
       <c r="C138" s="2" t="s">
         <v>24</v>
       </c>
@@ -5966,8 +6090,8 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="2"/>
+    <row r="139" ht="15">
+      <c r="B139" s="73"/>
       <c r="C139" s="2" t="s">
         <v>24</v>
       </c>
@@ -5986,8 +6110,8 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="2"/>
+    <row r="140" ht="15">
+      <c r="B140" s="73"/>
       <c r="C140" s="2" t="s">
         <v>24</v>
       </c>
@@ -6006,13 +6130,14 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" ht="79">
       <c r="A141" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" s="10">
+      <c r="B141" s="72"/>
+    </row>
+    <row r="142" ht="15">
+      <c r="B142" s="73">
         <v>45859</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -6033,13 +6158,14 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="143" ht="67">
       <c r="A143" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="10">
+      <c r="B143" s="72"/>
+    </row>
+    <row r="144" ht="15">
+      <c r="B144" s="73">
         <v>45859</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -6060,13 +6186,14 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="145" ht="418">
       <c r="A145" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
+      <c r="B145" s="72"/>
+    </row>
+    <row r="146" ht="15">
+      <c r="B146" s="73"/>
       <c r="C146" s="2" t="s">
         <v>24</v>
       </c>
@@ -6085,8 +6212,8 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
+    <row r="147" ht="15">
+      <c r="B147" s="73"/>
       <c r="C147" s="2" t="s">
         <v>24</v>
       </c>
@@ -6105,8 +6232,8 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="2"/>
+    <row r="148" ht="15">
+      <c r="B148" s="73"/>
       <c r="C148" s="2" t="s">
         <v>24</v>
       </c>
@@ -6125,8 +6252,8 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="2"/>
+    <row r="149" ht="15">
+      <c r="B149" s="73"/>
       <c r="C149" s="2" t="s">
         <v>24</v>
       </c>
@@ -6145,8 +6272,8 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B150" s="2"/>
+    <row r="150" ht="15">
+      <c r="B150" s="73"/>
       <c r="C150" s="2" t="s">
         <v>24</v>
       </c>
@@ -6165,8 +6292,8 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="2"/>
+    <row r="151" ht="15">
+      <c r="B151" s="73"/>
       <c r="C151" s="2" t="s">
         <v>24</v>
       </c>
@@ -6185,8 +6312,8 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" s="2"/>
+    <row r="152" ht="15">
+      <c r="B152" s="73"/>
       <c r="C152" s="2" t="s">
         <v>24</v>
       </c>
@@ -6205,8 +6332,8 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
+    <row r="153" ht="15">
+      <c r="B153" s="73"/>
       <c r="C153" s="2" t="s">
         <v>24</v>
       </c>
@@ -6225,13 +6352,14 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="154" ht="118">
       <c r="A154" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="10">
+      <c r="B154" s="72"/>
+    </row>
+    <row r="155" ht="15">
+      <c r="B155" s="73">
         <v>45979</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -6252,8 +6380,8 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="10">
+    <row r="156" ht="15">
+      <c r="B156" s="73">
         <v>45979</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -6274,8 +6402,8 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" s="10">
+    <row r="157" ht="15">
+      <c r="B157" s="73">
         <v>45979</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -6296,13 +6424,14 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="158" ht="132">
       <c r="A158" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="10">
+      <c r="B158" s="72"/>
+    </row>
+    <row r="159" ht="15">
+      <c r="B159" s="73">
         <v>45976</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -6323,8 +6452,8 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="10">
+    <row r="160" ht="15">
+      <c r="B160" s="73">
         <v>45976</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -6345,8 +6474,8 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="10">
+    <row r="161" ht="15">
+      <c r="B161" s="73">
         <v>45976</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -6367,13 +6496,14 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" ht="67">
       <c r="A162" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" s="10">
+      <c r="B162" s="72"/>
+    </row>
+    <row r="163" ht="15">
+      <c r="B163" s="73">
         <v>45863</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -6394,13 +6524,14 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="164" ht="235">
       <c r="A164" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" s="2"/>
+      <c r="B164" s="72"/>
+    </row>
+    <row r="165" ht="15">
+      <c r="B165" s="73"/>
       <c r="C165" s="2" t="s">
         <v>24</v>
       </c>
@@ -6419,8 +6550,8 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="2"/>
+    <row r="166" ht="15">
+      <c r="B166" s="73"/>
       <c r="C166" s="2" t="s">
         <v>24</v>
       </c>
@@ -6439,8 +6570,8 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="2"/>
+    <row r="167" ht="15">
+      <c r="B167" s="73"/>
       <c r="C167" s="2" t="s">
         <v>24</v>
       </c>
@@ -6459,8 +6590,8 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B168" s="2"/>
+    <row r="168" ht="15">
+      <c r="B168" s="73"/>
       <c r="C168" s="2" t="s">
         <v>24</v>
       </c>
@@ -6479,8 +6610,8 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" s="2"/>
+    <row r="169" ht="15">
+      <c r="B169" s="73"/>
       <c r="C169" s="2" t="s">
         <v>24</v>
       </c>
@@ -6499,13 +6630,14 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="170" ht="196">
       <c r="A170" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="2"/>
+      <c r="B170" s="72"/>
+    </row>
+    <row r="171" ht="15">
+      <c r="B171" s="73"/>
       <c r="C171" s="2" t="s">
         <v>24</v>
       </c>
@@ -6524,8 +6656,8 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="2"/>
+    <row r="172" ht="15">
+      <c r="B172" s="73"/>
       <c r="C172" s="2" t="s">
         <v>24</v>
       </c>
@@ -6544,8 +6676,8 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" s="2"/>
+    <row r="173" ht="15">
+      <c r="B173" s="73"/>
       <c r="C173" s="2" t="s">
         <v>24</v>
       </c>
@@ -6564,8 +6696,8 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B174" s="2"/>
+    <row r="174" ht="15">
+      <c r="B174" s="73"/>
       <c r="C174" s="2" t="s">
         <v>24</v>
       </c>
@@ -6584,13 +6716,14 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" ht="54">
       <c r="A175" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B176" s="10">
+      <c r="B175" s="72"/>
+    </row>
+    <row r="176" ht="15">
+      <c r="B176" s="73">
         <v>45954</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -6611,13 +6744,14 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" ht="67">
       <c r="A177" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B178" s="10">
+      <c r="B177" s="72"/>
+    </row>
+    <row r="178" ht="15">
+      <c r="B178" s="73">
         <v>45857</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -6638,13 +6772,14 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="179" ht="366">
       <c r="A179" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B180" s="10">
+      <c r="B179" s="72"/>
+    </row>
+    <row r="180" ht="15">
+      <c r="B180" s="73">
         <v>45719</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -6665,8 +6800,8 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" s="10">
+    <row r="181" ht="15">
+      <c r="B181" s="73">
         <v>45719</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -6687,8 +6822,8 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" s="10">
+    <row r="182" ht="15">
+      <c r="B182" s="73">
         <v>45719</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -6709,8 +6844,8 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" s="10">
+    <row r="183" ht="15">
+      <c r="B183" s="73">
         <v>45719</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -6731,8 +6866,8 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B184" s="10">
+    <row r="184" ht="15">
+      <c r="B184" s="73">
         <v>45719</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -6753,8 +6888,8 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="10">
+    <row r="185" ht="15">
+      <c r="B185" s="73">
         <v>45719</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -6775,13 +6910,14 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="186" ht="430">
       <c r="A186" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="2"/>
+      <c r="B186" s="72"/>
+    </row>
+    <row r="187" ht="15">
+      <c r="B187" s="73"/>
       <c r="C187" s="2" t="s">
         <v>24</v>
       </c>
@@ -6800,8 +6936,8 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="2"/>
+    <row r="188" ht="15">
+      <c r="B188" s="73"/>
       <c r="C188" s="2" t="s">
         <v>24</v>
       </c>
@@ -6820,8 +6956,8 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" s="2"/>
+    <row r="189" ht="15">
+      <c r="B189" s="73"/>
       <c r="C189" s="2" t="s">
         <v>24</v>
       </c>
@@ -6840,8 +6976,8 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="2"/>
+    <row r="190" ht="15">
+      <c r="B190" s="73"/>
       <c r="C190" s="2" t="s">
         <v>24</v>
       </c>
@@ -6860,8 +6996,8 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B191" s="2"/>
+    <row r="191" ht="15">
+      <c r="B191" s="73"/>
       <c r="C191" s="2" t="s">
         <v>24</v>
       </c>
@@ -6880,8 +7016,8 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="2"/>
+    <row r="192" ht="15">
+      <c r="B192" s="73"/>
       <c r="C192" s="2" t="s">
         <v>24</v>
       </c>
@@ -6900,8 +7036,8 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B193" s="2"/>
+    <row r="193" ht="15">
+      <c r="B193" s="73"/>
       <c r="C193" s="2" t="s">
         <v>24</v>
       </c>
@@ -6920,8 +7056,8 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="2"/>
+    <row r="194" ht="15">
+      <c r="B194" s="73"/>
       <c r="C194" s="2" t="s">
         <v>24</v>
       </c>
@@ -6940,14 +7076,14 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="195" ht="313">
       <c r="A195" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B195" s="10"/>
-    </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="10">
+      <c r="B195" s="73"/>
+    </row>
+    <row r="196" ht="15">
+      <c r="B196" s="73">
         <v>45720</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -6968,8 +7104,8 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" s="10">
+    <row r="197" ht="15">
+      <c r="B197" s="73">
         <v>45720</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -6990,9 +7126,9 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" ht="15">
       <c r="A198" s="12"/>
-      <c r="B198" s="10">
+      <c r="B198" s="73">
         <v>45720</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -7013,8 +7149,8 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B199" s="10">
+    <row r="199" ht="15">
+      <c r="B199" s="73">
         <v>45720</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -7035,8 +7171,8 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B200" s="10">
+    <row r="200" ht="15">
+      <c r="B200" s="73">
         <v>45720</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -7057,13 +7193,14 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="201" ht="261">
       <c r="A201" s="3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B202" s="2"/>
+      <c r="B201" s="72"/>
+    </row>
+    <row r="202" ht="15">
+      <c r="B202" s="73"/>
       <c r="C202" s="2" t="s">
         <v>24</v>
       </c>
@@ -7082,8 +7219,8 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="2"/>
+    <row r="203" ht="15">
+      <c r="B203" s="73"/>
       <c r="C203" s="2" t="s">
         <v>24</v>
       </c>
@@ -7102,8 +7239,8 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="2"/>
+    <row r="204" ht="15">
+      <c r="B204" s="73"/>
       <c r="C204" s="2" t="s">
         <v>24</v>
       </c>
@@ -7122,8 +7259,8 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B205" s="2"/>
+    <row r="205" ht="15">
+      <c r="B205" s="73"/>
       <c r="C205" s="2" t="s">
         <v>24</v>
       </c>
@@ -7142,8 +7279,8 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B206" s="2"/>
+    <row r="206" ht="15">
+      <c r="B206" s="73"/>
       <c r="C206" s="2" t="s">
         <v>24</v>
       </c>
@@ -7162,8 +7299,8 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B207" s="2"/>
+    <row r="207" ht="15">
+      <c r="B207" s="73"/>
       <c r="C207" s="2" t="s">
         <v>24</v>
       </c>
@@ -7182,14 +7319,15 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="208" ht="469">
       <c r="A208" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B208" s="72"/>
+    </row>
+    <row r="209" ht="15">
       <c r="A209" s="3"/>
-      <c r="B209" s="2"/>
+      <c r="B209" s="73"/>
       <c r="C209" s="2" t="s">
         <v>24</v>
       </c>
@@ -7208,8 +7346,8 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B210" s="2"/>
+    <row r="210" ht="15">
+      <c r="B210" s="73"/>
       <c r="C210" s="2" t="s">
         <v>24</v>
       </c>
@@ -7228,8 +7366,8 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B211" s="2"/>
+    <row r="211" ht="15">
+      <c r="B211" s="73"/>
       <c r="C211" s="2" t="s">
         <v>24</v>
       </c>
@@ -7248,8 +7386,8 @@
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B212" s="2"/>
+    <row r="212" ht="15">
+      <c r="B212" s="73"/>
       <c r="C212" s="2" t="s">
         <v>24</v>
       </c>
@@ -7268,8 +7406,8 @@
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B213" s="2"/>
+    <row r="213" ht="15">
+      <c r="B213" s="73"/>
       <c r="C213" s="2" t="s">
         <v>24</v>
       </c>
@@ -7288,8 +7426,8 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B214" s="2"/>
+    <row r="214" ht="15">
+      <c r="B214" s="73"/>
       <c r="C214" s="2" t="s">
         <v>24</v>
       </c>
@@ -7308,8 +7446,8 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B215" s="2"/>
+    <row r="215" ht="15">
+      <c r="B215" s="73"/>
       <c r="C215" s="2" t="s">
         <v>24</v>
       </c>
@@ -7328,8 +7466,8 @@
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B216" s="2"/>
+    <row r="216" ht="15">
+      <c r="B216" s="73"/>
       <c r="C216" s="2" t="s">
         <v>24</v>
       </c>
@@ -7348,8 +7486,8 @@
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B217" s="2"/>
+    <row r="217" ht="15">
+      <c r="B217" s="73"/>
       <c r="C217" s="2" t="s">
         <v>24</v>
       </c>
@@ -7368,13 +7506,14 @@
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="218" ht="67">
       <c r="A218" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B219" s="2"/>
+      <c r="B218" s="72"/>
+    </row>
+    <row r="219" ht="15">
+      <c r="B219" s="73"/>
       <c r="C219" s="2" t="s">
         <v>103</v>
       </c>
@@ -7393,13 +7532,14 @@
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="220" ht="54">
       <c r="A220" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B221" s="10">
+      <c r="B220" s="72"/>
+    </row>
+    <row r="221" ht="15">
+      <c r="B221" s="73">
         <v>45942</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -7420,13 +7560,14 @@
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="222" ht="184">
       <c r="A222" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B223" s="2"/>
+      <c r="B222" s="72"/>
+    </row>
+    <row r="223" ht="15">
+      <c r="B223" s="73"/>
       <c r="C223" s="2" t="s">
         <v>24</v>
       </c>
@@ -7445,8 +7586,8 @@
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B224" s="2"/>
+    <row r="224" ht="15">
+      <c r="B224" s="73"/>
       <c r="C224" s="2" t="s">
         <v>24</v>
       </c>
@@ -7465,8 +7606,8 @@
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B225" s="2"/>
+    <row r="225" ht="15">
+      <c r="B225" s="73"/>
       <c r="C225" s="2" t="s">
         <v>24</v>
       </c>
@@ -7485,8 +7626,8 @@
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B226" s="2"/>
+    <row r="226" ht="15">
+      <c r="B226" s="73"/>
       <c r="C226" s="2" t="s">
         <v>24</v>
       </c>
@@ -7505,13 +7646,14 @@
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" ht="54">
       <c r="A227" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B228" s="10">
+      <c r="B227" s="72"/>
+    </row>
+    <row r="228" ht="15">
+      <c r="B228" s="73">
         <v>45945</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -7532,13 +7674,14 @@
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="229" ht="105">
       <c r="A229" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B230" s="2"/>
+      <c r="B229" s="72"/>
+    </row>
+    <row r="230" ht="15">
+      <c r="B230" s="73"/>
       <c r="C230" s="2" t="s">
         <v>24</v>
       </c>
@@ -7557,8 +7700,8 @@
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B231" s="2"/>
+    <row r="231" ht="15">
+      <c r="B231" s="73"/>
       <c r="C231" s="2" t="s">
         <v>24</v>
       </c>
@@ -7577,13 +7720,14 @@
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="232" ht="79">
       <c r="A232" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B233" s="13">
+      <c r="B232" s="72"/>
+    </row>
+    <row r="233" ht="15">
+      <c r="B233" s="75">
         <v>45977</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -7604,8 +7748,8 @@
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B234" s="13">
+    <row r="234" ht="15">
+      <c r="B234" s="75">
         <v>45977</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -7626,13 +7770,14 @@
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="235" ht="196">
       <c r="A235" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="10">
+      <c r="B235" s="72"/>
+    </row>
+    <row r="236" ht="15">
+      <c r="B236" s="73">
         <v>45726</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -7653,13 +7798,14 @@
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="237" ht="313">
       <c r="A237" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
+      <c r="B237" s="72"/>
+    </row>
+    <row r="238" ht="15">
+      <c r="B238" s="73"/>
       <c r="C238" s="2" t="s">
         <v>24</v>
       </c>
@@ -7678,8 +7824,8 @@
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
+    <row r="239" ht="15">
+      <c r="B239" s="73"/>
       <c r="C239" s="2" t="s">
         <v>24</v>
       </c>
@@ -7698,8 +7844,8 @@
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B240" s="2"/>
+    <row r="240" ht="15">
+      <c r="B240" s="73"/>
       <c r="C240" s="2" t="s">
         <v>24</v>
       </c>
@@ -7718,8 +7864,8 @@
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B241" s="2"/>
+    <row r="241" ht="15">
+      <c r="B241" s="73"/>
       <c r="C241" s="2" t="s">
         <v>24</v>
       </c>
@@ -7738,8 +7884,8 @@
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B242" s="2"/>
+    <row r="242" ht="15">
+      <c r="B242" s="73"/>
       <c r="C242" s="2" t="s">
         <v>24</v>
       </c>
@@ -7758,8 +7904,8 @@
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B243" s="2"/>
+    <row r="243" ht="15">
+      <c r="B243" s="73"/>
       <c r="C243" s="2" t="s">
         <v>24</v>
       </c>
@@ -7778,13 +7924,14 @@
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="244" ht="196">
       <c r="A244" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B245" s="10">
+      <c r="B244" s="72"/>
+    </row>
+    <row r="245" ht="15">
+      <c r="B245" s="73">
         <v>45727</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -7805,13 +7952,14 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="246" ht="210">
       <c r="A246" s="3" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B247" s="10">
+      <c r="B246" s="72"/>
+    </row>
+    <row r="247" ht="15">
+      <c r="B247" s="73">
         <v>45727</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -7832,13 +7980,14 @@
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="248" ht="222">
       <c r="A248" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B249" s="2"/>
+      <c r="B248" s="72"/>
+    </row>
+    <row r="249" ht="15">
+      <c r="B249" s="73"/>
       <c r="C249" s="2" t="s">
         <v>24</v>
       </c>
@@ -7857,8 +8006,8 @@
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B250" s="2"/>
+    <row r="250" ht="15">
+      <c r="B250" s="73"/>
       <c r="C250" s="2" t="s">
         <v>24</v>
       </c>
@@ -7877,8 +8026,8 @@
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B251" s="2"/>
+    <row r="251" ht="15">
+      <c r="B251" s="73"/>
       <c r="C251" s="2" t="s">
         <v>24</v>
       </c>
@@ -7897,8 +8046,8 @@
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B252" s="2"/>
+    <row r="252" ht="15">
+      <c r="B252" s="73"/>
       <c r="C252" s="2" t="s">
         <v>24</v>
       </c>
@@ -7917,13 +8066,14 @@
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" ht="54">
       <c r="A253" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B254" s="10">
+      <c r="B253" s="72"/>
+    </row>
+    <row r="254" ht="15">
+      <c r="B254" s="73">
         <v>45953</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -7944,13 +8094,14 @@
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="255" ht="118">
       <c r="A255" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B256" s="2"/>
+      <c r="B255" s="72"/>
+    </row>
+    <row r="256" ht="15">
+      <c r="B256" s="73"/>
       <c r="C256" s="2" t="s">
         <v>24</v>
       </c>
@@ -7969,8 +8120,8 @@
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B257" s="2"/>
+    <row r="257" ht="15">
+      <c r="B257" s="73"/>
       <c r="C257" s="2" t="s">
         <v>24</v>
       </c>
@@ -7989,8 +8140,8 @@
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B258" s="30"/>
+    <row r="258" ht="15">
+      <c r="B258" s="76"/>
       <c r="C258" s="30" t="s">
         <v>24</v>
       </c>
@@ -8009,8 +8160,8 @@
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B259" s="2"/>
+    <row r="259" ht="15">
+      <c r="B259" s="73"/>
       <c r="C259" s="2" t="s">
         <v>24</v>
       </c>
@@ -8029,8 +8180,8 @@
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B260" s="2"/>
+    <row r="260" ht="15">
+      <c r="B260" s="73"/>
       <c r="C260" s="2" t="s">
         <v>24</v>
       </c>
@@ -8049,8 +8200,8 @@
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B261" s="2"/>
+    <row r="261" ht="15">
+      <c r="B261" s="73"/>
       <c r="C261" s="2" t="s">
         <v>24</v>
       </c>
@@ -8069,13 +8220,14 @@
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="262" ht="79">
       <c r="A262" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B263" s="2"/>
+      <c r="B262" s="72"/>
+    </row>
+    <row r="263" ht="15">
+      <c r="B263" s="73"/>
       <c r="C263" s="2" t="s">
         <v>24</v>
       </c>
@@ -8094,8 +8246,8 @@
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B264" s="2"/>
+    <row r="264" ht="15">
+      <c r="B264" s="73"/>
       <c r="C264" s="2" t="s">
         <v>24</v>
       </c>
@@ -8114,13 +8266,14 @@
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="265" ht="158">
       <c r="A265" s="3" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B266" s="2"/>
+      <c r="B265" s="72"/>
+    </row>
+    <row r="266" ht="15">
+      <c r="B266" s="73"/>
       <c r="C266" s="2" t="s">
         <v>24</v>
       </c>
@@ -8139,8 +8292,8 @@
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B267" s="2"/>
+    <row r="267" ht="15">
+      <c r="B267" s="73"/>
       <c r="C267" s="2" t="s">
         <v>24</v>
       </c>
@@ -8159,8 +8312,8 @@
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B268" s="2"/>
+    <row r="268" ht="15">
+      <c r="B268" s="73"/>
       <c r="C268" s="2" t="s">
         <v>24</v>
       </c>
@@ -8179,13 +8332,14 @@
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="269" ht="79">
       <c r="A269" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B270" s="10">
+      <c r="B269" s="72"/>
+    </row>
+    <row r="270" ht="15">
+      <c r="B270" s="73">
         <v>45978</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -8206,8 +8360,8 @@
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B271" s="10">
+    <row r="271" ht="15">
+      <c r="B271" s="73">
         <v>45978</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -8228,13 +8382,14 @@
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="272" ht="105">
       <c r="A272" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B273" s="10">
+      <c r="B272" s="72"/>
+    </row>
+    <row r="273" ht="15">
+      <c r="B273" s="73">
         <v>45728</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -8255,13 +8410,14 @@
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="274" ht="196">
       <c r="A274" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B275" s="2"/>
+      <c r="B274" s="72"/>
+    </row>
+    <row r="275" ht="15">
+      <c r="B275" s="73"/>
       <c r="C275" s="2" t="s">
         <v>24</v>
       </c>
@@ -8280,8 +8436,8 @@
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B276" s="2"/>
+    <row r="276" ht="15">
+      <c r="B276" s="73"/>
       <c r="C276" s="2" t="s">
         <v>24</v>
       </c>
@@ -8300,8 +8456,8 @@
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B277" s="2"/>
+    <row r="277" ht="15">
+      <c r="B277" s="73"/>
       <c r="C277" s="2" t="s">
         <v>24</v>
       </c>
@@ -8320,8 +8476,8 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B278" s="2"/>
+    <row r="278" ht="15">
+      <c r="B278" s="73"/>
       <c r="C278" s="2" t="s">
         <v>24</v>
       </c>
@@ -8340,13 +8496,14 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="279" ht="249">
       <c r="A279" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B280" s="2"/>
+      <c r="B279" s="72"/>
+    </row>
+    <row r="280" ht="15">
+      <c r="B280" s="73"/>
       <c r="C280" s="2" t="s">
         <v>24</v>
       </c>
@@ -8365,8 +8522,8 @@
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B281" s="2"/>
+    <row r="281" ht="15">
+      <c r="B281" s="73"/>
       <c r="C281" s="2" t="s">
         <v>24</v>
       </c>
@@ -8385,8 +8542,8 @@
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B282" s="2"/>
+    <row r="282" ht="15">
+      <c r="B282" s="73"/>
       <c r="C282" s="2" t="s">
         <v>24</v>
       </c>
@@ -8405,8 +8562,8 @@
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B283" s="2"/>
+    <row r="283" ht="15">
+      <c r="B283" s="73"/>
       <c r="C283" s="2" t="s">
         <v>24</v>
       </c>
@@ -8425,13 +8582,14 @@
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="284" ht="184">
       <c r="A284" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B285" s="2"/>
+      <c r="B284" s="72"/>
+    </row>
+    <row r="285" ht="15">
+      <c r="B285" s="73"/>
       <c r="C285" s="2" t="s">
         <v>70</v>
       </c>
@@ -8450,8 +8608,8 @@
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B286" s="2"/>
+    <row r="286" ht="15">
+      <c r="B286" s="73"/>
       <c r="C286" s="2" t="s">
         <v>70</v>
       </c>
@@ -8470,8 +8628,8 @@
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B287" s="2"/>
+    <row r="287" ht="15">
+      <c r="B287" s="73"/>
       <c r="C287" s="2" t="s">
         <v>70</v>
       </c>
@@ -8490,8 +8648,8 @@
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B288" s="2"/>
+    <row r="288" ht="15">
+      <c r="B288" s="73"/>
       <c r="C288" s="2" t="s">
         <v>70</v>
       </c>
@@ -8510,8 +8668,8 @@
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B289" s="2"/>
+    <row r="289" ht="15">
+      <c r="B289" s="73"/>
       <c r="C289" s="2" t="s">
         <v>70</v>
       </c>
@@ -8530,8 +8688,8 @@
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B290" s="2"/>
+    <row r="290" ht="15">
+      <c r="B290" s="73"/>
       <c r="C290" s="2" t="s">
         <v>70</v>
       </c>
@@ -8550,13 +8708,14 @@
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="291" ht="235">
       <c r="A291" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B292" s="2"/>
+      <c r="B291" s="72"/>
+    </row>
+    <row r="292" ht="15">
+      <c r="B292" s="73"/>
       <c r="C292" s="2" t="s">
         <v>24</v>
       </c>
@@ -8575,8 +8734,8 @@
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B293" s="2"/>
+    <row r="293" ht="15">
+      <c r="B293" s="73"/>
       <c r="C293" s="2" t="s">
         <v>24</v>
       </c>
@@ -8595,8 +8754,8 @@
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B294" s="2"/>
+    <row r="294" ht="15">
+      <c r="B294" s="73"/>
       <c r="C294" s="2" t="s">
         <v>24</v>
       </c>
@@ -8615,8 +8774,8 @@
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B295" s="2"/>
+    <row r="295" ht="15">
+      <c r="B295" s="73"/>
       <c r="C295" s="2" t="s">
         <v>24</v>
       </c>
@@ -8635,13 +8794,14 @@
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" ht="54">
       <c r="A296" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B297" s="10">
+      <c r="B296" s="72"/>
+    </row>
+    <row r="297" ht="15">
+      <c r="B297" s="73">
         <v>45945</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -8662,13 +8822,14 @@
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="298" ht="67">
       <c r="A298" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B299" s="10">
+      <c r="B298" s="72"/>
+    </row>
+    <row r="299" ht="15">
+      <c r="B299" s="73">
         <v>45855</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -8689,13 +8850,14 @@
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="300" ht="196">
       <c r="A300" s="3" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B301" s="2"/>
+      <c r="B300" s="72"/>
+    </row>
+    <row r="301" ht="15">
+      <c r="B301" s="73"/>
       <c r="C301" s="2" t="s">
         <v>24</v>
       </c>
@@ -8714,8 +8876,8 @@
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B302" s="2"/>
+    <row r="302" ht="15">
+      <c r="B302" s="73"/>
       <c r="C302" s="2" t="s">
         <v>24</v>
       </c>
@@ -8734,8 +8896,8 @@
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B303" s="2"/>
+    <row r="303" ht="15">
+      <c r="B303" s="73"/>
       <c r="C303" s="2" t="s">
         <v>24</v>
       </c>
@@ -8754,13 +8916,14 @@
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="304" ht="118">
       <c r="A304" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B305" s="2"/>
+      <c r="B304" s="72"/>
+    </row>
+    <row r="305" ht="15">
+      <c r="B305" s="73"/>
       <c r="C305" s="2" t="s">
         <v>24</v>
       </c>
@@ -8779,8 +8942,8 @@
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B306" s="2"/>
+    <row r="306" ht="15">
+      <c r="B306" s="73"/>
       <c r="C306" s="2" t="s">
         <v>24</v>
       </c>
@@ -8799,13 +8962,14 @@
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
     </row>
-    <row r="307" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="307" ht="184">
       <c r="A307" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B308" s="2"/>
+      <c r="B307" s="72"/>
+    </row>
+    <row r="308" ht="15">
+      <c r="B308" s="73"/>
       <c r="C308" s="2" t="s">
         <v>24</v>
       </c>
@@ -8824,8 +8988,8 @@
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B309" s="2"/>
+    <row r="309" ht="15">
+      <c r="B309" s="73"/>
       <c r="C309" s="2" t="s">
         <v>24</v>
       </c>
@@ -8844,8 +9008,8 @@
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B310" s="2"/>
+    <row r="310" ht="15">
+      <c r="B310" s="73"/>
       <c r="C310" s="2" t="s">
         <v>24</v>
       </c>
@@ -8864,13 +9028,14 @@
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" ht="41">
       <c r="A311" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B312" s="2"/>
+      <c r="B311" s="72"/>
+    </row>
+    <row r="312" ht="15">
+      <c r="B312" s="73"/>
       <c r="C312" s="2" t="s">
         <v>24</v>
       </c>
@@ -8889,13 +9054,14 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="313" ht="79">
       <c r="A313" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B314" s="10">
+      <c r="B313" s="72"/>
+    </row>
+    <row r="314" ht="15">
+      <c r="B314" s="73">
         <v>45865</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -8916,13 +9082,14 @@
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="315" ht="105">
       <c r="A315" s="3" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B316" s="14">
+      <c r="B315" s="72"/>
+    </row>
+    <row r="316" ht="15">
+      <c r="B316" s="73">
         <v>45746</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -8943,8 +9110,8 @@
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B317" s="14">
+    <row r="317" ht="15">
+      <c r="B317" s="73">
         <v>45746</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -8965,8 +9132,8 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B318" s="14">
+    <row r="318" ht="15">
+      <c r="B318" s="73">
         <v>45746</v>
       </c>
       <c r="C318" s="2" t="s">
@@ -8987,13 +9154,14 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="319" ht="132">
       <c r="A319" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B320" s="7">
+      <c r="B319" s="72"/>
+    </row>
+    <row r="320" ht="15">
+      <c r="B320" s="73">
         <v>45381</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -9014,8 +9182,8 @@
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B321" s="7">
+    <row r="321" ht="15">
+      <c r="B321" s="73">
         <v>45381</v>
       </c>
       <c r="C321" s="2" t="s">
@@ -9036,8 +9204,8 @@
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B322" s="7">
+    <row r="322" ht="15">
+      <c r="B322" s="73">
         <v>45381</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -9058,8 +9226,8 @@
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B323" s="7">
+    <row r="323" ht="15">
+      <c r="B323" s="73">
         <v>45381</v>
       </c>
       <c r="C323" s="2" t="s">
@@ -9080,13 +9248,14 @@
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="324" ht="171">
       <c r="A324" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B325" s="2"/>
+      <c r="B324" s="72"/>
+    </row>
+    <row r="325" ht="15">
+      <c r="B325" s="73"/>
       <c r="C325" s="2" t="s">
         <v>24</v>
       </c>
@@ -9105,8 +9274,8 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B326" s="2"/>
+    <row r="326" ht="15">
+      <c r="B326" s="73"/>
       <c r="C326" s="2" t="s">
         <v>24</v>
       </c>
@@ -9125,8 +9294,8 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B327" s="2"/>
+    <row r="327" ht="15">
+      <c r="B327" s="73"/>
       <c r="C327" s="2" t="s">
         <v>24</v>
       </c>
@@ -9145,13 +9314,14 @@
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="328" ht="67">
       <c r="A328" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B329" s="10">
+      <c r="B328" s="72"/>
+    </row>
+    <row r="329" ht="15">
+      <c r="B329" s="73">
         <v>45738</v>
       </c>
       <c r="C329" s="2" t="s">
@@ -9172,13 +9342,14 @@
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="330" ht="144">
       <c r="A330" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B331" s="2"/>
+      <c r="B330" s="72"/>
+    </row>
+    <row r="331" ht="15">
+      <c r="B331" s="73"/>
       <c r="C331" s="2" t="s">
         <v>24</v>
       </c>
@@ -9197,8 +9368,8 @@
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B332" s="2"/>
+    <row r="332" ht="15">
+      <c r="B332" s="73"/>
       <c r="C332" s="2" t="s">
         <v>24</v>
       </c>
@@ -9217,8 +9388,8 @@
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B333" s="2"/>
+    <row r="333" ht="15">
+      <c r="B333" s="73"/>
       <c r="C333" s="2" t="s">
         <v>24</v>
       </c>
@@ -9237,13 +9408,14 @@
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
     </row>
-    <row r="334" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="334" ht="483">
       <c r="A334" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B335" s="2"/>
+      <c r="B334" s="72"/>
+    </row>
+    <row r="335" ht="15">
+      <c r="B335" s="73"/>
       <c r="C335" s="2" t="s">
         <v>24</v>
       </c>
@@ -9262,8 +9434,8 @@
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
     </row>
-    <row r="336" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B336" s="2"/>
+    <row r="336" ht="15">
+      <c r="B336" s="73"/>
       <c r="C336" s="2" t="s">
         <v>24</v>
       </c>
@@ -9282,8 +9454,8 @@
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
     </row>
-    <row r="337" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B337" s="2"/>
+    <row r="337" ht="15">
+      <c r="B337" s="73"/>
       <c r="C337" s="2" t="s">
         <v>24</v>
       </c>
@@ -9302,8 +9474,8 @@
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
     </row>
-    <row r="338" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B338" s="2"/>
+    <row r="338" ht="15">
+      <c r="B338" s="73"/>
       <c r="C338" s="2" t="s">
         <v>24</v>
       </c>
@@ -9322,8 +9494,8 @@
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
     </row>
-    <row r="339" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B339" s="2"/>
+    <row r="339" ht="15">
+      <c r="B339" s="73"/>
       <c r="C339" s="2" t="s">
         <v>24</v>
       </c>
@@ -9342,8 +9514,8 @@
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
     </row>
-    <row r="340" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B340" s="2"/>
+    <row r="340" ht="15">
+      <c r="B340" s="73"/>
       <c r="C340" s="2" t="s">
         <v>24</v>
       </c>
@@ -9362,8 +9534,8 @@
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
     </row>
-    <row r="341" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B341" s="2"/>
+    <row r="341" ht="15">
+      <c r="B341" s="73"/>
       <c r="C341" s="2" t="s">
         <v>24</v>
       </c>
@@ -9382,8 +9554,8 @@
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
     </row>
-    <row r="342" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B342" s="2"/>
+    <row r="342" ht="15">
+      <c r="B342" s="73"/>
       <c r="C342" s="2" t="s">
         <v>24</v>
       </c>
@@ -9402,8 +9574,8 @@
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
     </row>
-    <row r="343" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B343" s="2"/>
+    <row r="343" ht="15">
+      <c r="B343" s="73"/>
       <c r="C343" s="2" t="s">
         <v>24</v>
       </c>
@@ -9422,13 +9594,14 @@
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
     </row>
-    <row r="344" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="344" ht="132">
       <c r="A344" s="3" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B345" s="2"/>
+      <c r="B344" s="72"/>
+    </row>
+    <row r="345" ht="15">
+      <c r="B345" s="73"/>
       <c r="C345" s="2" t="s">
         <v>70</v>
       </c>
@@ -9447,8 +9620,8 @@
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
     </row>
-    <row r="346" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B346" s="2"/>
+    <row r="346" ht="15">
+      <c r="B346" s="73"/>
       <c r="C346" s="2" t="s">
         <v>70</v>
       </c>
@@ -9465,8 +9638,8 @@
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
     </row>
-    <row r="347" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B347" s="2"/>
+    <row r="347" ht="15">
+      <c r="B347" s="73"/>
       <c r="C347" s="2" t="s">
         <v>70</v>
       </c>
@@ -9485,8 +9658,8 @@
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
     </row>
-    <row r="348" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B348" s="2"/>
+    <row r="348" ht="15">
+      <c r="B348" s="73"/>
       <c r="C348" s="2" t="s">
         <v>70</v>
       </c>
@@ -9505,8 +9678,8 @@
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
     </row>
-    <row r="349" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B349" s="2"/>
+    <row r="349" ht="15">
+      <c r="B349" s="73"/>
       <c r="C349" s="2" t="s">
         <v>70</v>
       </c>
@@ -9525,13 +9698,14 @@
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
     </row>
-    <row r="350" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="350" ht="54">
       <c r="A350" s="3" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B351" s="2"/>
+      <c r="B350" s="72"/>
+    </row>
+    <row r="351" ht="15">
+      <c r="B351" s="73"/>
       <c r="C351" s="2" t="s">
         <v>24</v>
       </c>
@@ -9550,13 +9724,14 @@
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
     </row>
-    <row r="352" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="352" ht="184">
       <c r="A352" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B353" s="2"/>
+      <c r="B352" s="72"/>
+    </row>
+    <row r="353" ht="15">
+      <c r="B353" s="73"/>
       <c r="C353" s="2" t="s">
         <v>24</v>
       </c>
@@ -9575,8 +9750,8 @@
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
     </row>
-    <row r="354" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B354" s="2"/>
+    <row r="354" ht="15">
+      <c r="B354" s="73"/>
       <c r="C354" s="2" t="s">
         <v>24</v>
       </c>
@@ -9595,8 +9770,8 @@
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
     </row>
-    <row r="355" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B355" s="2"/>
+    <row r="355" ht="15">
+      <c r="B355" s="73"/>
       <c r="C355" s="2" t="s">
         <v>24</v>
       </c>
@@ -9615,8 +9790,8 @@
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
     </row>
-    <row r="356" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B356" s="2"/>
+    <row r="356" ht="15">
+      <c r="B356" s="73"/>
       <c r="C356" s="2" t="s">
         <v>24</v>
       </c>
@@ -9635,13 +9810,14 @@
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
     </row>
-    <row r="357" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="357" ht="430">
       <c r="A357" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B358" s="10">
+      <c r="B357" s="72"/>
+    </row>
+    <row r="358" ht="15">
+      <c r="B358" s="73">
         <v>45718</v>
       </c>
       <c r="C358" s="2" t="s">
@@ -9662,8 +9838,8 @@
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
     </row>
-    <row r="359" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B359" s="10">
+    <row r="359" ht="15">
+      <c r="B359" s="73">
         <v>45718</v>
       </c>
       <c r="C359" s="2" t="s">
@@ -9684,8 +9860,8 @@
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
     </row>
-    <row r="360" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B360" s="10">
+    <row r="360" ht="15">
+      <c r="B360" s="73">
         <v>45718</v>
       </c>
       <c r="C360" s="2" t="s">
@@ -9706,8 +9882,8 @@
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
     </row>
-    <row r="361" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B361" s="10">
+    <row r="361" ht="15">
+      <c r="B361" s="73">
         <v>45718</v>
       </c>
       <c r="C361" s="2" t="s">
@@ -9728,8 +9904,8 @@
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
     </row>
-    <row r="362" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B362" s="10">
+    <row r="362" ht="15">
+      <c r="B362" s="73">
         <v>45718</v>
       </c>
       <c r="C362" s="2" t="s">
@@ -9750,8 +9926,8 @@
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
     </row>
-    <row r="363" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B363" s="10">
+    <row r="363" ht="15">
+      <c r="B363" s="73">
         <v>45718</v>
       </c>
       <c r="C363" s="2" t="s">
@@ -9772,8 +9948,8 @@
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
     </row>
-    <row r="364" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B364" s="10">
+    <row r="364" ht="15">
+      <c r="B364" s="73">
         <v>45718</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -9794,13 +9970,14 @@
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
     </row>
-    <row r="365" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="365" ht="366">
       <c r="A365" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B366" s="2"/>
+      <c r="B365" s="72"/>
+    </row>
+    <row r="366" ht="15">
+      <c r="B366" s="73"/>
       <c r="C366" s="2" t="s">
         <v>24</v>
       </c>
@@ -9819,8 +9996,8 @@
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
     </row>
-    <row r="367" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B367" s="2"/>
+    <row r="367" ht="15">
+      <c r="B367" s="73"/>
       <c r="C367" s="2" t="s">
         <v>24</v>
       </c>
@@ -9839,8 +10016,8 @@
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
     </row>
-    <row r="368" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B368" s="2"/>
+    <row r="368" ht="15">
+      <c r="B368" s="73"/>
       <c r="C368" s="2" t="s">
         <v>24</v>
       </c>
@@ -9859,8 +10036,8 @@
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
     </row>
-    <row r="369" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B369" s="2"/>
+    <row r="369" ht="15">
+      <c r="B369" s="73"/>
       <c r="C369" s="2" t="s">
         <v>24</v>
       </c>
@@ -9879,8 +10056,8 @@
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
     </row>
-    <row r="370" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B370" s="2"/>
+    <row r="370" ht="15">
+      <c r="B370" s="73"/>
       <c r="C370" s="2" t="s">
         <v>24</v>
       </c>
@@ -9899,8 +10076,8 @@
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
     </row>
-    <row r="371" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B371" s="2"/>
+    <row r="371" ht="15">
+      <c r="B371" s="73"/>
       <c r="C371" s="2" t="s">
         <v>24</v>
       </c>
@@ -9919,8 +10096,8 @@
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
     </row>
-    <row r="372" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B372" s="2"/>
+    <row r="372" ht="15">
+      <c r="B372" s="73"/>
       <c r="C372" s="2" t="s">
         <v>24</v>
       </c>
@@ -9939,13 +10116,14 @@
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
     </row>
-    <row r="373" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="373" ht="210">
       <c r="A373" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B374" s="2"/>
+      <c r="B373" s="72"/>
+    </row>
+    <row r="374" ht="15">
+      <c r="B374" s="73"/>
       <c r="C374" s="2" t="s">
         <v>24</v>
       </c>
@@ -9964,8 +10142,8 @@
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
     </row>
-    <row r="375" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B375" s="2"/>
+    <row r="375" ht="15">
+      <c r="B375" s="73"/>
       <c r="C375" s="2" t="s">
         <v>24</v>
       </c>
@@ -9984,8 +10162,8 @@
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
     </row>
-    <row r="376" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B376" s="2"/>
+    <row r="376" ht="15">
+      <c r="B376" s="73"/>
       <c r="C376" s="2" t="s">
         <v>24</v>
       </c>
@@ -10004,8 +10182,8 @@
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
     </row>
-    <row r="377" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B377" s="2"/>
+    <row r="377" ht="15">
+      <c r="B377" s="73"/>
       <c r="C377" s="36" t="s">
         <v>24</v>
       </c>
@@ -10024,13 +10202,14 @@
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
     </row>
-    <row r="378" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="378" ht="41">
       <c r="A378" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B379" s="10">
+      <c r="B378" s="72"/>
+    </row>
+    <row r="379" ht="15">
+      <c r="B379" s="73">
         <v>45739</v>
       </c>
       <c r="C379" s="2" t="s">
@@ -10051,13 +10230,14 @@
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
     </row>
-    <row r="380" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="380" ht="144">
       <c r="A380" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B381" s="10">
+      <c r="B380" s="72"/>
+    </row>
+    <row r="381" ht="15">
+      <c r="B381" s="73">
         <v>45981</v>
       </c>
       <c r="C381" s="2" t="s">
@@ -10078,8 +10258,8 @@
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
     </row>
-    <row r="382" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B382" s="10">
+    <row r="382" ht="15">
+      <c r="B382" s="73">
         <v>45981</v>
       </c>
       <c r="C382" s="2" t="s">
@@ -10100,13 +10280,14 @@
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
     </row>
-    <row r="383" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="383" ht="456">
       <c r="A383" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B384" s="2"/>
+      <c r="B383" s="72"/>
+    </row>
+    <row r="384" ht="15">
+      <c r="B384" s="73"/>
       <c r="C384" s="2" t="s">
         <v>24</v>
       </c>
@@ -10125,8 +10306,8 @@
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
     </row>
-    <row r="385" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B385" s="2"/>
+    <row r="385" ht="15">
+      <c r="B385" s="73"/>
       <c r="C385" s="2" t="s">
         <v>24</v>
       </c>
@@ -10145,8 +10326,8 @@
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
     </row>
-    <row r="386" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B386" s="2"/>
+    <row r="386" ht="15">
+      <c r="B386" s="73"/>
       <c r="C386" s="2" t="s">
         <v>24</v>
       </c>
@@ -10165,8 +10346,8 @@
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
     </row>
-    <row r="387" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B387" s="2"/>
+    <row r="387" ht="15">
+      <c r="B387" s="73"/>
       <c r="C387" s="2" t="s">
         <v>24</v>
       </c>
@@ -10185,8 +10366,8 @@
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
     </row>
-    <row r="388" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B388" s="2"/>
+    <row r="388" ht="15">
+      <c r="B388" s="73"/>
       <c r="C388" s="2" t="s">
         <v>24</v>
       </c>
@@ -10205,8 +10386,8 @@
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
     </row>
-    <row r="389" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B389" s="2"/>
+    <row r="389" ht="15">
+      <c r="B389" s="73"/>
       <c r="C389" s="2" t="s">
         <v>24</v>
       </c>
@@ -10225,8 +10406,8 @@
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
     </row>
-    <row r="390" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B390" s="2"/>
+    <row r="390" ht="15">
+      <c r="B390" s="73"/>
       <c r="C390" s="2" t="s">
         <v>24</v>
       </c>
@@ -10245,8 +10426,8 @@
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
     </row>
-    <row r="391" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B391" s="2"/>
+    <row r="391" ht="15">
+      <c r="B391" s="73"/>
       <c r="C391" s="2" t="s">
         <v>24</v>
       </c>
@@ -10267,20 +10448,20 @@
       </c>
       <c r="I391" s="2"/>
     </row>
-    <row r="392" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="392" ht="171">
       <c r="A392" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="B392" s="49"/>
+      <c r="B392" s="74"/>
       <c r="C392" s="49"/>
       <c r="D392" s="49"/>
       <c r="E392" s="49"/>
       <c r="F392" s="49"/>
       <c r="G392" s="49"/>
     </row>
-    <row r="393" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" ht="15">
       <c r="A393" s="49"/>
-      <c r="B393" s="50"/>
+      <c r="B393" s="73"/>
       <c r="C393" s="50" t="s">
         <v>70</v>
       </c>
@@ -10299,9 +10480,9 @@
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
     </row>
-    <row r="394" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" ht="15">
       <c r="A394" s="49"/>
-      <c r="B394" s="50"/>
+      <c r="B394" s="73"/>
       <c r="C394" s="50" t="s">
         <v>70</v>
       </c>
@@ -10320,9 +10501,9 @@
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
     </row>
-    <row r="395" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" ht="15">
       <c r="A395" s="49"/>
-      <c r="B395" s="50"/>
+      <c r="B395" s="73"/>
       <c r="C395" s="50" t="s">
         <v>70</v>
       </c>
@@ -10341,9 +10522,9 @@
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
     </row>
-    <row r="396" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" ht="15">
       <c r="A396" s="49"/>
-      <c r="B396" s="50"/>
+      <c r="B396" s="73"/>
       <c r="C396" s="50" t="s">
         <v>70</v>
       </c>
@@ -10356,15 +10537,13 @@
       <c r="F396" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="G396" s="50" t="s">
-        <v>338</v>
-      </c>
+      <c r="G396" s="50"/>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
     </row>
-    <row r="397" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" ht="15">
       <c r="A397" s="49"/>
-      <c r="B397" s="50"/>
+      <c r="B397" s="73"/>
       <c r="C397" s="50" t="s">
         <v>70</v>
       </c>
@@ -10377,15 +10556,13 @@
       <c r="F397" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="G397" s="50" t="s">
-        <v>231</v>
-      </c>
+      <c r="G397" s="50"/>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
     </row>
-    <row r="398" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" ht="15">
       <c r="A398" s="49"/>
-      <c r="B398" s="50"/>
+      <c r="B398" s="73"/>
       <c r="C398" s="50" t="s">
         <v>70</v>
       </c>
@@ -10398,19 +10575,18 @@
       <c r="F398" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="G398" s="50" t="s">
-        <v>419</v>
-      </c>
+      <c r="G398" s="50"/>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
     </row>
-    <row r="399" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="399" ht="261">
       <c r="A399" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B400" s="2"/>
+      <c r="B399" s="72"/>
+    </row>
+    <row r="400" ht="15">
+      <c r="B400" s="73"/>
       <c r="C400" s="2" t="s">
         <v>24</v>
       </c>
@@ -10429,8 +10605,8 @@
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
     </row>
-    <row r="401" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B401" s="2"/>
+    <row r="401" ht="15">
+      <c r="B401" s="73"/>
       <c r="C401" s="2" t="s">
         <v>24</v>
       </c>
@@ -10449,8 +10625,8 @@
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
     </row>
-    <row r="402" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B402" s="2"/>
+    <row r="402" ht="15">
+      <c r="B402" s="73"/>
       <c r="C402" s="2" t="s">
         <v>24</v>
       </c>
@@ -10469,8 +10645,8 @@
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
     </row>
-    <row r="403" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B403" s="2"/>
+    <row r="403" ht="15">
+      <c r="B403" s="73"/>
       <c r="C403" s="2" t="s">
         <v>24</v>
       </c>
@@ -10489,8 +10665,8 @@
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
     </row>
-    <row r="404" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B404" s="2"/>
+    <row r="404" ht="15">
+      <c r="B404" s="73"/>
       <c r="C404" s="2" t="s">
         <v>24</v>
       </c>
@@ -10509,13 +10685,14 @@
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
     </row>
-    <row r="405" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="405" ht="171">
       <c r="A405" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B406" s="10">
+      <c r="B405" s="72"/>
+    </row>
+    <row r="406" ht="15">
+      <c r="B406" s="73">
         <v>45957</v>
       </c>
       <c r="C406" s="2" t="s">
@@ -10540,13 +10717,14 @@
         <v>422</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="407" ht="54">
       <c r="A407" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B408" s="10">
+      <c r="B407" s="72"/>
+    </row>
+    <row r="408" ht="15">
+      <c r="B408" s="73">
         <v>45945</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -10567,13 +10745,14 @@
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
     </row>
-    <row r="409" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="409" ht="67">
       <c r="A409" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B410" s="10">
+      <c r="B409" s="72"/>
+    </row>
+    <row r="410" ht="15">
+      <c r="B410" s="73">
         <v>45954</v>
       </c>
       <c r="C410" s="2" t="s">
@@ -10594,13 +10773,14 @@
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
     </row>
-    <row r="411" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="411" ht="67">
       <c r="A411" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B412" s="10">
+      <c r="B411" s="72"/>
+    </row>
+    <row r="412" ht="15">
+      <c r="B412" s="73">
         <v>45953</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -10621,13 +10801,14 @@
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
     </row>
-    <row r="413" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="413" ht="249">
       <c r="A413" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B414" s="2"/>
+      <c r="B413" s="72"/>
+    </row>
+    <row r="414" ht="15">
+      <c r="B414" s="73"/>
       <c r="C414" s="2" t="s">
         <v>24</v>
       </c>
@@ -10646,8 +10827,8 @@
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
     </row>
-    <row r="415" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B415" s="2"/>
+    <row r="415" ht="15">
+      <c r="B415" s="73"/>
       <c r="C415" s="2" t="s">
         <v>24</v>
       </c>
@@ -10666,8 +10847,8 @@
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
     </row>
-    <row r="416" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B416" s="2"/>
+    <row r="416" ht="15">
+      <c r="B416" s="73"/>
       <c r="C416" s="2" t="s">
         <v>24</v>
       </c>
@@ -10686,8 +10867,8 @@
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
     </row>
-    <row r="417" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B417" s="2"/>
+    <row r="417" ht="15">
+      <c r="B417" s="73"/>
       <c r="C417" s="2" t="s">
         <v>24</v>
       </c>
@@ -10706,8 +10887,8 @@
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
     </row>
-    <row r="418" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B418" s="2"/>
+    <row r="418" ht="15">
+      <c r="B418" s="73"/>
       <c r="C418" s="2" t="s">
         <v>24</v>
       </c>
@@ -10726,13 +10907,14 @@
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
     </row>
-    <row r="419" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="419" ht="196">
       <c r="A419" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B420" s="2"/>
+      <c r="B419" s="72"/>
+    </row>
+    <row r="420" ht="15">
+      <c r="B420" s="73"/>
       <c r="C420" s="2" t="s">
         <v>24</v>
       </c>
@@ -10751,8 +10933,8 @@
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
     </row>
-    <row r="421" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B421" s="2"/>
+    <row r="421" ht="15">
+      <c r="B421" s="73"/>
       <c r="C421" s="2" t="s">
         <v>24</v>
       </c>
@@ -10771,8 +10953,8 @@
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
     </row>
-    <row r="422" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B422" s="2"/>
+    <row r="422" ht="15">
+      <c r="B422" s="73"/>
       <c r="C422" s="2" t="s">
         <v>24</v>
       </c>
@@ -10791,8 +10973,8 @@
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
     </row>
-    <row r="423" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B423" s="2"/>
+    <row r="423" ht="15">
+      <c r="B423" s="73"/>
       <c r="C423" s="2" t="s">
         <v>24</v>
       </c>
@@ -10811,13 +10993,14 @@
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
     </row>
-    <row r="424" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="424" ht="93">
       <c r="A424" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B425" s="2"/>
+      <c r="B424" s="72"/>
+    </row>
+    <row r="425" ht="15">
+      <c r="B425" s="73"/>
       <c r="C425" s="2" t="s">
         <v>103</v>
       </c>
@@ -10836,8 +11019,8 @@
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
     </row>
-    <row r="426" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B426" s="2"/>
+    <row r="426" ht="15">
+      <c r="B426" s="73"/>
       <c r="C426" s="2" t="s">
         <v>103</v>
       </c>
@@ -10856,13 +11039,14 @@
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
     </row>
-    <row r="427" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" customHeight="1" ht="132">
       <c r="A427" s="25" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B428" s="23">
+      <c r="B427" s="72"/>
+    </row>
+    <row r="428" ht="15">
+      <c r="B428" s="77">
         <v>45953</v>
       </c>
       <c r="C428" s="20" t="s">
@@ -10881,8 +11065,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B429" s="24">
+    <row r="429" ht="15">
+      <c r="B429" s="75">
         <v>45953</v>
       </c>
       <c r="C429" s="22" t="s">
@@ -10897,17 +11081,18 @@
       <c r="F429" s="18">
         <v>131</v>
       </c>
-      <c r="G429" s="18">
+      <c r="G429" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="430" ht="196">
       <c r="A430" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B431" s="2"/>
+      <c r="B430" s="72"/>
+    </row>
+    <row r="431" ht="15">
+      <c r="B431" s="73"/>
       <c r="C431" s="2" t="s">
         <v>103</v>
       </c>
@@ -10926,8 +11111,8 @@
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
     </row>
-    <row r="432" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B432" s="2"/>
+    <row r="432" ht="15">
+      <c r="B432" s="73"/>
       <c r="C432" s="2" t="s">
         <v>103</v>
       </c>
@@ -10946,8 +11131,8 @@
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
     </row>
-    <row r="433" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B433" s="2"/>
+    <row r="433" ht="15">
+      <c r="B433" s="73"/>
       <c r="C433" s="2" t="s">
         <v>103</v>
       </c>
@@ -10966,8 +11151,8 @@
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
     </row>
-    <row r="434" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B434" s="2"/>
+    <row r="434" ht="15">
+      <c r="B434" s="73"/>
       <c r="C434" s="2" t="s">
         <v>103</v>
       </c>
@@ -10986,13 +11171,14 @@
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
     </row>
-    <row r="435" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="435" ht="79">
       <c r="A435" s="27" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B436" s="28"/>
+      <c r="B435" s="72"/>
+    </row>
+    <row r="436" ht="15">
+      <c r="B436" s="77"/>
       <c r="C436" s="20" t="s">
         <v>24</v>
       </c>
@@ -11011,8 +11197,8 @@
       <c r="H436" s="19"/>
       <c r="I436" s="19"/>
     </row>
-    <row r="437" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B437" s="24"/>
+    <row r="437" ht="15">
+      <c r="B437" s="75"/>
       <c r="C437" s="29" t="s">
         <v>24</v>
       </c>
@@ -11031,13 +11217,14 @@
       <c r="H437" s="19"/>
       <c r="I437" s="19"/>
     </row>
-    <row r="438" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="438" ht="67">
       <c r="A438" s="27" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B439" s="28"/>
+      <c r="B438" s="72"/>
+    </row>
+    <row r="439" ht="15">
+      <c r="B439" s="77"/>
       <c r="C439" s="20" t="s">
         <v>24</v>
       </c>
@@ -11056,8 +11243,8 @@
       <c r="H439" s="19"/>
       <c r="I439" s="19"/>
     </row>
-    <row r="440" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B440" s="24"/>
+    <row r="440" ht="15">
+      <c r="B440" s="75"/>
       <c r="C440" s="29" t="s">
         <v>24</v>
       </c>
@@ -11076,13 +11263,14 @@
       <c r="H440" s="19"/>
       <c r="I440" s="19"/>
     </row>
-    <row r="441" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="441" ht="158">
       <c r="A441" s="27" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B442" s="31">
+      <c r="B441" s="72"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="78">
         <v>45981</v>
       </c>
       <c r="C442" s="32" t="s">
@@ -11103,8 +11291,8 @@
       <c r="H442" s="35"/>
       <c r="I442" s="35"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B443" s="31">
+    <row r="443">
+      <c r="B443" s="78">
         <v>45981</v>
       </c>
       <c r="C443" s="32" t="s">
@@ -11125,13 +11313,14 @@
       <c r="H443" s="35"/>
       <c r="I443" s="35"/>
     </row>
-    <row r="444" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="444" ht="144">
       <c r="A444" s="27" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B445" s="31">
+      <c r="B444" s="72"/>
+    </row>
+    <row r="445" ht="15">
+      <c r="B445" s="78">
         <v>45981</v>
       </c>
       <c r="C445" s="32" t="s">
@@ -11152,8 +11341,8 @@
       <c r="H445" s="35"/>
       <c r="I445" s="35"/>
     </row>
-    <row r="446" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B446" s="31">
+    <row r="446" ht="15">
+      <c r="B446" s="78">
         <v>45981</v>
       </c>
       <c r="C446" s="32" t="s">
@@ -11174,13 +11363,14 @@
       <c r="H446" s="35"/>
       <c r="I446" s="35"/>
     </row>
-    <row r="447" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="447" ht="171">
       <c r="A447" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B448" s="10">
+      <c r="B447" s="72"/>
+    </row>
+    <row r="448" ht="15">
+      <c r="B448" s="73">
         <v>45957</v>
       </c>
       <c r="C448" s="2" t="s">
@@ -11205,13 +11395,14 @@
         <v>563</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="449" ht="171">
       <c r="A449" s="27" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B450" s="21">
+      <c r="B449" s="72"/>
+    </row>
+    <row r="450" ht="15">
+      <c r="B450" s="75">
         <v>45966</v>
       </c>
       <c r="C450" s="37" t="s">
@@ -11236,13 +11427,14 @@
         <v>58734</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="451" ht="158">
       <c r="A451" s="27" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B452" s="38"/>
+      <c r="B451" s="72"/>
+    </row>
+    <row r="452" ht="15">
+      <c r="B452" s="75"/>
       <c r="C452" s="39" t="s">
         <v>24</v>
       </c>
@@ -11265,13 +11457,14 @@
         <v>72468</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="453" ht="196">
       <c r="A453" s="27" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B454" s="19"/>
+      <c r="B453" s="72"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="75"/>
       <c r="C454" s="41" t="s">
         <v>24</v>
       </c>
@@ -11290,8 +11483,8 @@
       <c r="H454" s="19"/>
       <c r="I454" s="19"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B455" s="19"/>
+    <row r="455">
+      <c r="B455" s="75"/>
       <c r="C455" s="41" t="s">
         <v>24</v>
       </c>
@@ -11310,8 +11503,8 @@
       <c r="H455" s="19"/>
       <c r="I455" s="19"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B456" s="19"/>
+    <row r="456">
+      <c r="B456" s="75"/>
       <c r="C456" s="41" t="s">
         <v>24</v>
       </c>
@@ -11330,13 +11523,14 @@
       <c r="H456" s="19"/>
       <c r="I456" s="19"/>
     </row>
-    <row r="457" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="457" ht="184">
       <c r="A457" s="27" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B458" s="26"/>
+      <c r="B457" s="72"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="75"/>
       <c r="C458" s="41" t="s">
         <v>24</v>
       </c>
@@ -11355,8 +11549,8 @@
       <c r="H458" s="26"/>
       <c r="I458" s="26"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B459" s="26"/>
+    <row r="459">
+      <c r="B459" s="75"/>
       <c r="C459" s="41" t="s">
         <v>24</v>
       </c>
@@ -11375,8 +11569,8 @@
       <c r="H459" s="26"/>
       <c r="I459" s="26"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B460" s="26"/>
+    <row r="460">
+      <c r="B460" s="75"/>
       <c r="C460" s="41" t="s">
         <v>24</v>
       </c>
@@ -11395,13 +11589,14 @@
       <c r="H460" s="26"/>
       <c r="I460" s="26"/>
     </row>
-    <row r="461" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="461" ht="105">
       <c r="A461" s="43" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B462" s="47">
+      <c r="B461" s="72"/>
+    </row>
+    <row r="462" ht="15">
+      <c r="B462" s="73">
         <v>45748</v>
       </c>
       <c r="C462" s="2" t="s">
@@ -11422,8 +11617,8 @@
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
     </row>
-    <row r="463" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B463" s="47">
+    <row r="463" ht="15">
+      <c r="B463" s="73">
         <v>45748</v>
       </c>
       <c r="C463" s="2" t="s">
@@ -11444,8 +11639,8 @@
       <c r="H463" s="40"/>
       <c r="I463" s="40"/>
     </row>
-    <row r="464" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B464" s="47">
+    <row r="464" ht="15">
+      <c r="B464" s="73">
         <v>45748</v>
       </c>
       <c r="C464" s="2" t="s">
@@ -11466,13 +11661,14 @@
       <c r="H464" s="19"/>
       <c r="I464" s="19"/>
     </row>
-    <row r="465" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="465" ht="79">
       <c r="A465" s="27" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B466" s="47">
+      <c r="B465" s="72"/>
+    </row>
+    <row r="466" ht="15">
+      <c r="B466" s="73">
         <v>45752</v>
       </c>
       <c r="C466" s="2" t="s">
@@ -11493,8 +11689,8 @@
       <c r="H466" s="19"/>
       <c r="I466" s="19"/>
     </row>
-    <row r="467" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B467" s="47">
+    <row r="467" ht="15">
+      <c r="B467" s="73">
         <v>45752</v>
       </c>
       <c r="C467" s="2" t="s">
@@ -11515,8 +11711,8 @@
       <c r="H467" s="19"/>
       <c r="I467" s="19"/>
     </row>
-    <row r="468" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B468" s="47">
+    <row r="468" ht="15">
+      <c r="B468" s="73">
         <v>45752</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -11537,13 +11733,14 @@
       <c r="H468" s="19"/>
       <c r="I468" s="19"/>
     </row>
-    <row r="469" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="469" ht="118">
       <c r="A469" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B470" s="21">
+      <c r="B469" s="72"/>
+    </row>
+    <row r="470" ht="15">
+      <c r="B470" s="75">
         <v>45953</v>
       </c>
       <c r="C470" s="20" t="s">
@@ -11564,8 +11761,8 @@
       <c r="H470" s="55"/>
       <c r="I470" s="56"/>
     </row>
-    <row r="471" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B471" s="21">
+    <row r="471" ht="15">
+      <c r="B471" s="75">
         <v>45953</v>
       </c>
       <c r="C471" s="20" t="s">
